--- a/doc/protocol.xlsx
+++ b/doc/protocol.xlsx
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EOF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RequestSpan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +93,10 @@
   </si>
   <si>
     <t>文件结束标识性数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOFSpan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +572,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="E19" sqref="E19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -675,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -754,7 +754,7 @@
     </row>
     <row r="16" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H20" s="9"/>
     </row>
